--- a/src/Data/mansi_solanki_tasks.xlsx
+++ b/src/Data/mansi_solanki_tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>ListName</t>
   </si>
@@ -31,6 +31,9 @@
     <t>TaskDueDate</t>
   </si>
   <si>
+    <t>TaskStatus</t>
+  </si>
+  <si>
     <t>EstimatedTime</t>
   </si>
   <si>
@@ -49,18 +52,30 @@
     <t>TaskScore</t>
   </si>
   <si>
+    <t>EstimatedTaskMin</t>
+  </si>
+  <si>
+    <t>AssignTo</t>
+  </si>
+  <si>
     <t>ERPNext</t>
   </si>
   <si>
+    <t>86cw75tb6</t>
+  </si>
+  <si>
+    <t>86cw75tdf</t>
+  </si>
+  <si>
+    <t>86cw7x7xw</t>
+  </si>
+  <si>
+    <t>86cw7x84y</t>
+  </si>
+  <si>
     <t>86cw7x8f4</t>
   </si>
   <si>
-    <t>86cw7x7xw</t>
-  </si>
-  <si>
-    <t>86cw7x84y</t>
-  </si>
-  <si>
     <t>86cw7x9jk</t>
   </si>
   <si>
@@ -70,27 +85,27 @@
     <t>86cw7y1dr</t>
   </si>
   <si>
-    <t>86cw75tb6</t>
-  </si>
-  <si>
-    <t>86cw75tdf</t>
-  </si>
-  <si>
     <t>86cwa53ct</t>
   </si>
   <si>
     <t>86cwbxkvd</t>
   </si>
   <si>
+    <t>Mohit - Job Openings Form</t>
+  </si>
+  <si>
+    <t>Mansi - Leave Request Form</t>
+  </si>
+  <si>
+    <t>Mansi - Import Projects List</t>
+  </si>
+  <si>
+    <t>Vishal - Import Timesheets</t>
+  </si>
+  <si>
     <t>Customize Inbuilt Form</t>
   </si>
   <si>
-    <t>Mansi - Import Projects List</t>
-  </si>
-  <si>
-    <t>Vishal - Import Timesheets</t>
-  </si>
-  <si>
     <t>Test V15 Implementation</t>
   </si>
   <si>
@@ -100,22 +115,25 @@
     <t>Test Individual Any 3-4 User Accounts</t>
   </si>
   <si>
-    <t>Mohit - Job Openings Form</t>
-  </si>
-  <si>
-    <t>Mansi - Leave Request Form</t>
-  </si>
-  <si>
     <t>Mansi - Job Opening Form Suggestions</t>
   </si>
   <si>
     <t>Mansi - Create New Member Accounts</t>
   </si>
   <si>
+    <t>20-08-2024</t>
+  </si>
+  <si>
+    <t>21-08-2024</t>
+  </si>
+  <si>
+    <t>16-08-2024</t>
+  </si>
+  <si>
     <t>15-08-2024</t>
   </si>
   <si>
-    <t>16-08-2024</t>
+    <t>29-08-2024</t>
   </si>
   <si>
     <t>22-08-2024</t>
@@ -124,49 +142,52 @@
     <t>30-08-2024</t>
   </si>
   <si>
-    <t>29-08-2024</t>
-  </si>
-  <si>
-    <t>{"hrs": 8, "mins": 0, "time_estimate": 28800000}</t>
-  </si>
-  <si>
-    <t>{"hrs": 1, "mins": 0, "time_estimate": 3600000}</t>
-  </si>
-  <si>
-    <t>{"hrs": 3, "mins": 0, "time_estimate": 10800000}</t>
-  </si>
-  <si>
-    <t>{"hrs": 4, "mins": 0, "time_estimate": 14400000}</t>
-  </si>
-  <si>
-    <t>{"hrs": 5, "mins": 0, "time_estimate": 18000000}</t>
-  </si>
-  <si>
-    <t>{"hrs": 16, "mins": 0, "time_estimate": 57600000}</t>
-  </si>
-  <si>
-    <t>{"hrs": 0, "mins": 20, "time_estimate": 1200000}</t>
-  </si>
-  <si>
-    <t>{'id': '1', 'color': '#f50000', 'priority': 'urgent', 'orderindex': '1'}</t>
-  </si>
-  <si>
-    <t>{'id': '3', 'color': '#6fddff', 'priority': 'normal', 'orderindex': '3'}</t>
+    <t>delievered</t>
+  </si>
+  <si>
+    <t>{'hrs': 5, 'mins': 0, 'time_estimate': 18000000}</t>
+  </si>
+  <si>
+    <t>{'hrs': 16, 'mins': 0, 'time_estimate': 57600000}</t>
+  </si>
+  <si>
+    <t>{'hrs': 1, 'mins': 0, 'time_estimate': 3600000}</t>
+  </si>
+  <si>
+    <t>{'hrs': 3, 'mins': 0, 'time_estimate': 10800000}</t>
+  </si>
+  <si>
+    <t>{'hrs': 8, 'mins': 0, 'time_estimate': 28800000}</t>
+  </si>
+  <si>
+    <t>{'hrs': 4, 'mins': 0, 'time_estimate': 14400000}</t>
+  </si>
+  <si>
+    <t>{'hrs': 0, 'mins': 20, 'time_estimate': 1200000}</t>
+  </si>
+  <si>
+    <t>urgent</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
   <si>
     <t>[{'id': 88895068, 'color': '#622aea', 'email': 'mansi@riveredgeanalytics.com', 'initials': 'MS', 'username': 'mansi solanki', 'profilePicture': 'https://attachments.clickup.com/profilePictures/88895068_IUP.jpg'}]</t>
   </si>
   <si>
     <t>[{'id': 96776599, 'color': '', 'email': 'mohit.intern@riveredgeanalytics.com', 'initials': 'MP', 'username': 'Mohit parmar', 'profilePicture': None}, {'id': 88895068, 'color': '#622aea', 'email': 'mansi@riveredgeanalytics.com', 'initials': 'MS', 'username': 'mansi solanki', 'profilePicture': 'https://attachments.clickup.com/profilePictures/88895068_IUP.jpg'}]</t>
+  </si>
+  <si>
+    <t>mansi solanki</t>
+  </si>
+  <si>
+    <t>Mohit parmar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -219,12 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,355 +579,454 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45519</v>
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>3</v>
       </c>
+      <c r="M2">
+        <v>300</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45520</v>
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>44</v>
       </c>
       <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>960</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="I3">
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
+      <c r="M5">
+        <v>180</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45520</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>480</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>240</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="I4">
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
+      <c r="M8">
+        <v>180</v>
+      </c>
+      <c r="N8" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45520</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45520</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45520</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45524</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45525</v>
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
+      <c r="M9">
+        <v>180</v>
+      </c>
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>240</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45533</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45533</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
+      <c r="N11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data/mansi_solanki_tasks.xlsx
+++ b/src/Data/mansi_solanki_tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
   <si>
     <t>ListName</t>
   </si>
@@ -52,6 +52,9 @@
     <t>TaskScore</t>
   </si>
   <si>
+    <t>TaskCreatedDate</t>
+  </si>
+  <si>
     <t>EstimatedTaskMin</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>30-08-2024</t>
   </si>
   <si>
+    <t>17-08-2024</t>
+  </si>
+  <si>
     <t>delievered</t>
   </si>
   <si>
@@ -154,28 +160,46 @@
     <t>{'hrs': 1, 'mins': 0, 'time_estimate': 3600000}</t>
   </si>
   <si>
+    <t>{'hrs': 2, 'mins': 0, 'time_estimate': 10800000}</t>
+  </si>
+  <si>
+    <t>{'hrs': 8, 'mins': 0, 'time_estimate': 28800000}</t>
+  </si>
+  <si>
+    <t>{'hrs': 4, 'mins': 0, 'time_estimate': 14400000}</t>
+  </si>
+  <si>
     <t>{'hrs': 3, 'mins': 0, 'time_estimate': 10800000}</t>
   </si>
   <si>
-    <t>{'hrs': 8, 'mins': 0, 'time_estimate': 28800000}</t>
-  </si>
-  <si>
-    <t>{'hrs': 4, 'mins': 0, 'time_estimate': 14400000}</t>
-  </si>
-  <si>
     <t>{'hrs': 0, 'mins': 20, 'time_estimate': 1200000}</t>
   </si>
   <si>
     <t>urgent</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>[{'id': 88895068, 'color': '#622aea', 'email': 'mansi@riveredgeanalytics.com', 'initials': 'MS', 'username': 'mansi solanki', 'profilePicture': 'https://attachments.clickup.com/profilePictures/88895068_IUP.jpg'}]</t>
   </si>
   <si>
     <t>[{'id': 96776599, 'color': '', 'email': 'mohit.intern@riveredgeanalytics.com', 'initials': 'MP', 'username': 'Mohit parmar', 'profilePicture': None}, {'id': 88895068, 'color': '#622aea', 'email': 'mansi@riveredgeanalytics.com', 'initials': 'MS', 'username': 'mansi solanki', 'profilePicture': 'https://attachments.clickup.com/profilePictures/88895068_IUP.jpg'}]</t>
+  </si>
+  <si>
+    <t>12-08-2024</t>
+  </si>
+  <si>
+    <t>14-08-2024</t>
+  </si>
+  <si>
+    <t>13-08-2024</t>
   </si>
   <si>
     <t>mansi solanki</t>
@@ -539,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,34 +612,37 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -626,40 +653,43 @@
       <c r="L2">
         <v>3</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2">
         <v>300</v>
       </c>
-      <c r="N2" t="s">
-        <v>54</v>
+      <c r="O2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -670,40 +700,43 @@
       <c r="L3">
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3">
         <v>960</v>
       </c>
-      <c r="N3" t="s">
-        <v>54</v>
+      <c r="O3" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -714,40 +747,43 @@
       <c r="L4">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="s">
         <v>60</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -756,42 +792,45 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>180</v>
-      </c>
-      <c r="N5" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <v>120</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -802,40 +841,43 @@
       <c r="L6">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6">
         <v>480</v>
       </c>
-      <c r="N6" t="s">
-        <v>54</v>
+      <c r="O6" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -846,40 +888,43 @@
       <c r="L7">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7">
         <v>240</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -888,42 +933,45 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8">
         <v>180</v>
       </c>
-      <c r="N8" t="s">
-        <v>54</v>
+      <c r="O8" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -932,42 +980,45 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9">
         <v>180</v>
       </c>
-      <c r="N9" t="s">
-        <v>54</v>
+      <c r="O9" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -978,40 +1029,43 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10">
         <v>240</v>
       </c>
-      <c r="N10" t="s">
-        <v>54</v>
+      <c r="O10" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1022,11 +1076,14 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11">
         <v>20</v>
       </c>
-      <c r="N11" t="s">
-        <v>54</v>
+      <c r="O11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
